--- a/files/CUX.xlsx
+++ b/files/CUX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Code\pythonProject\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Code\cgas-py\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EC7789-EFF8-4A06-A4D4-F9D1E1506057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4987CB5-15DC-4326-B525-DE566A8195DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,106 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>供应商名称</t>
-  </si>
-  <si>
-    <t>零星供应商</t>
-  </si>
-  <si>
-    <t>张家口同辰科技有限公司</t>
-  </si>
-  <si>
-    <t>广东省燃气协会</t>
-  </si>
-  <si>
-    <t>广东省清远市质量计量监督检测所</t>
-  </si>
-  <si>
-    <t>清远市特种设备行业协会</t>
-  </si>
-  <si>
-    <t>中国人民财产保险股份有限公司深圳市分公司</t>
-  </si>
-  <si>
-    <t>中国人民财产保险股份有限公司清远市分公司</t>
-  </si>
-  <si>
-    <t>广州市荔湾区合飞燃气阀门经营部</t>
-  </si>
-  <si>
-    <t>清远市科特安技能技术服务有限公司</t>
-  </si>
-  <si>
-    <t>清远市住房公积金管理中心</t>
-  </si>
-  <si>
-    <t>广东清远市阳山县岭背镇民拥公共设施管理有限公司</t>
-  </si>
-  <si>
-    <t>清远市特种设备行业协会瓶装燃气企业分会</t>
-  </si>
-  <si>
-    <t>清远市新鸿基鸿运广场物业管理有限公司</t>
-  </si>
-  <si>
-    <t>唐亚建</t>
-  </si>
-  <si>
-    <t>广东宏达特种设备科技有限公司</t>
-  </si>
-  <si>
-    <t>阳山县公有资产管理有限公司</t>
-  </si>
-  <si>
-    <t>广东电网有限责任公司清远供电局</t>
-  </si>
-  <si>
-    <t>员工关爱基金</t>
-  </si>
-  <si>
-    <t>阳山县岭背镇财政所</t>
-  </si>
-  <si>
-    <t>专用瓶押金</t>
-  </si>
-  <si>
-    <t>连州市唐家能源有限公司</t>
-  </si>
-  <si>
-    <t>清远蛇口普华能源有限公司</t>
-  </si>
-  <si>
-    <t>中国电信股份有限公司清远分公司</t>
-  </si>
-  <si>
-    <t>社保供应商</t>
-  </si>
-  <si>
-    <t>清远中燃百江普华能源运输有限公司</t>
-  </si>
-  <si>
-    <t>清远普华能源钢瓶检测有限公司</t>
-  </si>
-  <si>
-    <t>清远智景园林景观工程有限公司</t>
-  </si>
-  <si>
-    <t>清远石角中燃百江普华能源有限公司</t>
-  </si>
-  <si>
-    <t>清远中燃百江普华能源投资有限公司</t>
-  </si>
-  <si>
-    <t>阳山县唐家燃气有限公司</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,12 +48,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -152,8 +56,152 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +214,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -190,35 +411,291 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - 着色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41" xr:uid="{ED1C4196-CD0E-4F00-9777-C5AE151D8D3A}"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{B87454F6-E462-4388-8DF5-B3B74FBA183B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C31"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" customHeight="1"/>
@@ -507,224 +984,12 @@
     <col min="2" max="2" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="13.9" customHeight="1">
+    <row r="1" spans="2:2" ht="13.9" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/CUX.xlsx
+++ b/files/CUX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Code\cgas-py\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4987CB5-15DC-4326-B525-DE566A8195DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D733674-3F5E-4D7C-8E37-CDB922668E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="3510" windowWidth="27000" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,281 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>供应商名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+  <si>
+    <t>供应商编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S00104036</t>
+  </si>
+  <si>
+    <t>S00185060</t>
+  </si>
+  <si>
+    <t>S00190289</t>
+  </si>
+  <si>
+    <t>S00072409</t>
+  </si>
+  <si>
+    <t>S00185059</t>
+  </si>
+  <si>
+    <t>S00190292</t>
+  </si>
+  <si>
+    <t>S00190283</t>
+  </si>
+  <si>
+    <t>S00185054</t>
+  </si>
+  <si>
+    <t>S00161803</t>
+  </si>
+  <si>
+    <t>S00160154</t>
+  </si>
+  <si>
+    <t>S00160267</t>
+  </si>
+  <si>
+    <t>S00155914</t>
+  </si>
+  <si>
+    <t>S00151545</t>
+  </si>
+  <si>
+    <t>S00147881</t>
+  </si>
+  <si>
+    <t>S00147885</t>
+  </si>
+  <si>
+    <t>S00145669</t>
+  </si>
+  <si>
+    <t>S00129650</t>
+  </si>
+  <si>
+    <t>S00139738</t>
+  </si>
+  <si>
+    <t>S00138908</t>
+  </si>
+  <si>
+    <t>S00138716</t>
+  </si>
+  <si>
+    <t>S00131214</t>
+  </si>
+  <si>
+    <t>S00122827</t>
+  </si>
+  <si>
+    <t>S00115330</t>
+  </si>
+  <si>
+    <t>S00081795</t>
+  </si>
+  <si>
+    <t>S00000010</t>
+  </si>
+  <si>
+    <t>S00112327</t>
+  </si>
+  <si>
+    <t>S00042145</t>
+  </si>
+  <si>
+    <t>S00000265</t>
+  </si>
+  <si>
+    <t>S00025888</t>
+  </si>
+  <si>
+    <t>S00042109</t>
+  </si>
+  <si>
+    <t>S00002486</t>
+  </si>
+  <si>
+    <t>S00096329</t>
+  </si>
+  <si>
+    <t>S00096486</t>
+  </si>
+  <si>
+    <t>S00096582</t>
+  </si>
+  <si>
+    <t>S00095722</t>
+  </si>
+  <si>
+    <t>S00003746</t>
+  </si>
+  <si>
+    <t>S00001017</t>
+  </si>
+  <si>
+    <t>S00096128</t>
+  </si>
+  <si>
+    <t>S00096134</t>
+  </si>
+  <si>
+    <t>S00094897</t>
+  </si>
+  <si>
+    <t>S00016412</t>
+  </si>
+  <si>
+    <t>S00094039</t>
+  </si>
+  <si>
+    <t>S00094014</t>
+  </si>
+  <si>
+    <t>S00094884</t>
+  </si>
+  <si>
+    <t>S00094468</t>
+  </si>
+  <si>
+    <t>S00000469</t>
+  </si>
+  <si>
+    <t>S00092778</t>
+  </si>
+  <si>
+    <t>S00092780</t>
+  </si>
+  <si>
+    <t>S00091987</t>
+  </si>
+  <si>
+    <t>S00091017</t>
+  </si>
+  <si>
+    <t>S00009094</t>
+  </si>
+  <si>
+    <t>S00009093</t>
+  </si>
+  <si>
+    <t>S00089896</t>
+  </si>
+  <si>
+    <t>S00038802</t>
+  </si>
+  <si>
+    <t>S00090633</t>
+  </si>
+  <si>
+    <t>S00090582</t>
+  </si>
+  <si>
+    <t>S00017225</t>
+  </si>
+  <si>
+    <t>S00088927</t>
+  </si>
+  <si>
+    <t>S00088998</t>
+  </si>
+  <si>
+    <t>S00088082</t>
+  </si>
+  <si>
+    <t>S00088089</t>
+  </si>
+  <si>
+    <t>S00087766</t>
+  </si>
+  <si>
+    <t>S00086944</t>
+  </si>
+  <si>
+    <t>S00086948</t>
+  </si>
+  <si>
+    <t>S00000562</t>
+  </si>
+  <si>
+    <t>S00086964</t>
+  </si>
+  <si>
+    <t>S00087129</t>
+  </si>
+  <si>
+    <t>S00017704</t>
+  </si>
+  <si>
+    <t>S00085623</t>
+  </si>
+  <si>
+    <t>S00085106</t>
+  </si>
+  <si>
+    <t>S00011524</t>
+  </si>
+  <si>
+    <t>S00085922</t>
+  </si>
+  <si>
+    <t>S00086020</t>
+  </si>
+  <si>
+    <t>S00085806</t>
+  </si>
+  <si>
+    <t>S00030320</t>
+  </si>
+  <si>
+    <t>S00076938</t>
+  </si>
+  <si>
+    <t>S00039475</t>
+  </si>
+  <si>
+    <t>S00076937</t>
+  </si>
+  <si>
+    <t>S00080845</t>
+  </si>
+  <si>
+    <t>S00028548</t>
+  </si>
+  <si>
+    <t>S00081200</t>
+  </si>
+  <si>
+    <t>S00082276</t>
+  </si>
+  <si>
+    <t>S00081717</t>
+  </si>
+  <si>
+    <t>S00081334</t>
+  </si>
+  <si>
+    <t>S00080841</t>
+  </si>
+  <si>
+    <t>S00082507</t>
+  </si>
+  <si>
+    <t>S00082575</t>
+  </si>
+  <si>
+    <t>S00082285</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +465,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -388,7 +676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -516,8 +804,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -645,14 +948,41 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="51">
     <cellStyle name="20% - 着色 1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="22" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="26" builtinId="38" customBuiltin="1"/>
@@ -666,16 +996,23 @@
     <cellStyle name="40% - 着色 5" xfId="35" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 着色 6" xfId="39" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% - 着色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1 2" xfId="45" xr:uid="{622B782F-4E6F-425D-9B31-DBA916AFE5C4}"/>
     <cellStyle name="60% - 着色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2 2" xfId="46" xr:uid="{9416E958-6482-4538-96DA-E9354D98E694}"/>
     <cellStyle name="60% - 着色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3 2" xfId="47" xr:uid="{AD841B76-5D99-4165-9439-D5AF87BE4E86}"/>
     <cellStyle name="60% - 着色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4 2" xfId="48" xr:uid="{286D7270-5925-4CA3-B107-E244189CD422}"/>
     <cellStyle name="60% - 着色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5 2" xfId="49" xr:uid="{E822172D-681A-4CD8-895F-54E51EBA4C02}"/>
     <cellStyle name="60% - 着色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6 2" xfId="50" xr:uid="{8AFDAB24-60F6-4BF5-B50F-2B2C39901AAB}"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="标题 5" xfId="43" xr:uid="{18DC727B-98B7-4A18-B2A1-6E31FB6C015D}"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="41" xr:uid="{ED1C4196-CD0E-4F00-9777-C5AE151D8D3A}"/>
@@ -687,6 +1024,7 @@
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="适中 2" xfId="44" xr:uid="{AFD55A6A-2EC9-40BC-B3EA-C2B0D534CE9D}"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="着色 1" xfId="17" builtinId="29" customBuiltin="1"/>
@@ -973,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1"/>
+  <dimension ref="B1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" customHeight="1"/>
@@ -989,6 +1327,581 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B20" s="2">
+        <v>450019</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B25" s="2">
+        <v>130054</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B27" s="2">
+        <v>320014</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B30" s="2">
+        <v>100046</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B33" s="2">
+        <v>450028</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B36" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B38" s="2">
+        <v>100018</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B41" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B42" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B45" s="2">
+        <v>100012</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B46" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B47" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B49" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B50" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B51" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B52" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B53" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B54" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B55" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B56" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B57" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B58" s="2">
+        <v>440089</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B59" s="2">
+        <v>440089</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B60" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B61" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B62" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B63" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B64" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B65" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B66" s="2">
+        <v>530004</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B67" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B68" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B69" s="2">
+        <v>530004</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B70" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B71" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B72" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B73" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B74" s="2">
+        <v>100011</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B75" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B76" s="2">
+        <v>530005</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B77" s="2">
+        <v>100010</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B78" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B79" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B80" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B81" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B82" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B83" s="2">
+        <v>450001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B84" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B85" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B86" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B87" s="2">
+        <v>100046</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B88" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B89" s="2">
+        <v>440080</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B90" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B91" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B92" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B93" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B94" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B95" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B96" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B97" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B98" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B99" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B100" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B101" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B102" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B103" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B104" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B105" s="2">
+        <v>100012</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B106" s="2">
+        <v>100018</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B107" s="2">
+        <v>100004</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B108" s="2">
+        <v>100059</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B109" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B110" s="2">
+        <v>440074</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B111" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B112" s="2">
+        <v>530012</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B113" s="2">
+        <v>100030</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B114" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B115" s="2">
+        <v>440075</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="13.9" customHeight="1">
+      <c r="B116" s="2">
+        <v>440073</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
